--- a/数据库表/ai_user_msg.xlsx
+++ b/数据库表/ai_user_msg.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>ai_user_id</t>
   </si>
@@ -118,12 +118,33 @@
   </si>
   <si>
     <t>ai_user_parents</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/M/d"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -138,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,12 +167,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AI3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -271,6 +294,214 @@
         <v>34</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>43837</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>